--- a/app/resource/xlsx/invoice_template.xlsx
+++ b/app/resource/xlsx/invoice_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeezh\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BB6FF-B4CF-4EE3-9C44-2313AA270B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80424A-0828-4D6D-A4A5-CE9D5737CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="13" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date:</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Internal Ref.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -515,6 +518,21 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -523,21 +541,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -862,13 +865,15 @@
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H32"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="10" width="11.7109375" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="13" max="17" width="7.7109375" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
@@ -887,14 +892,14 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="53"/>
@@ -919,8 +924,8 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -1022,35 +1027,37 @@
       <c r="J10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
+      <c r="L10" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="43"/>
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="45"/>
       <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="25"/>
       <c r="J13" s="26"/>
     </row>
@@ -1061,14 +1068,14 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="57"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="25"/>
       <c r="J15" s="26"/>
       <c r="L15" s="40"/>
@@ -1077,8 +1084,8 @@
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="E16" s="36"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
       <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="P16" s="36"/>
@@ -1088,8 +1095,8 @@
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="E17" s="36"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="25"/>
       <c r="J17" s="26"/>
       <c r="L17" s="40"/>
@@ -1100,8 +1107,8 @@
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="E18" s="36"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="25"/>
       <c r="J18" s="26"/>
       <c r="L18" s="40"/>
@@ -1112,8 +1119,8 @@
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="E19" s="36"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="25"/>
       <c r="J19" s="26"/>
       <c r="L19" s="40"/>
@@ -1124,7 +1131,7 @@
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
       <c r="L20" s="40"/>
@@ -1133,7 +1140,7 @@
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="25"/>
       <c r="J21" s="26"/>
       <c r="L21" s="40"/>
@@ -1142,14 +1149,14 @@
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="57"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="25"/>
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="57"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
       <c r="L23" s="40"/>
@@ -1158,7 +1165,7 @@
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="57"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
       <c r="L24" s="40"/>
@@ -1171,7 +1178,7 @@
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="57"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
       <c r="L25" s="40"/>
@@ -1184,7 +1191,7 @@
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="57"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
       <c r="L26" s="40"/>
@@ -1197,7 +1204,7 @@
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="57"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
       <c r="L27" s="40"/>
@@ -1210,7 +1217,7 @@
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="57"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="25"/>
       <c r="J28" s="26"/>
       <c r="L28" s="40"/>
@@ -1219,7 +1226,7 @@
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="57"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="25"/>
       <c r="J29" s="26"/>
       <c r="L29" s="40"/>
@@ -1230,7 +1237,7 @@
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="57"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="25"/>
       <c r="J30" s="26"/>
       <c r="L30" s="17"/>
@@ -1240,7 +1247,7 @@
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="57"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
       <c r="S31" s="6"/>
@@ -1254,8 +1261,8 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="25"/>
       <c r="J32" s="26"/>
       <c r="S32" s="6"/>

--- a/app/resource/xlsx/invoice_template.xlsx
+++ b/app/resource/xlsx/invoice_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80424A-0828-4D6D-A4A5-CE9D5737CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8073D-127F-4464-B2A1-C6AC4BEB0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ClientCompany">#REF!</definedName>
     <definedName name="MainContactAddress">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$J$44</definedName>
     <definedName name="ProjectName">#REF!</definedName>
     <definedName name="ProjectType">#REF!</definedName>
     <definedName name="QuotationNumber">#REF!</definedName>
@@ -43,30 +43,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date:</t>
   </si>
@@ -142,6 +120,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>This pay</t>
+  </si>
+  <si>
+    <t>Payment Instalments</t>
   </si>
 </sst>
 </file>
@@ -261,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -394,6 +381,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -403,15 +434,12 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -453,9 +481,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
@@ -466,10 +491,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,9 +514,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,20 +537,19 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -542,6 +560,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -565,9 +614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,7 +654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -711,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -853,7 +902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,10 +911,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC440A2-6DCB-4F7A-BF82-DD6AC71D2658}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,523 +932,686 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="32" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="53"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="4"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="48" t="s">
+      <c r="A6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="U6" s="4"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="U7" s="4"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="U8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="10"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="28" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="41"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="41"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="A13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="L15" s="40"/>
-      <c r="S15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="L15" s="36"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="E16" s="36"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="P16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="P16" s="32"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="E17" s="36"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="L17" s="40"/>
-      <c r="P17" s="36"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="L17" s="36"/>
+      <c r="P17" s="32"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="34"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="E18" s="36"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="L18" s="40"/>
-      <c r="P18" s="36"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="L18" s="36"/>
+      <c r="P18" s="32"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="34"/>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="E19" s="36"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="L19" s="40"/>
-      <c r="P19" s="36"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="L19" s="36"/>
+      <c r="P19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="34"/>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="L20" s="40"/>
-      <c r="S20" s="41"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="L20" s="36"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="L21" s="40"/>
-      <c r="S21" s="41"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="L21" s="36"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="L23" s="40"/>
-      <c r="S23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="L23" s="36"/>
+      <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="L24" s="40"/>
-      <c r="P24" s="36"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="18"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="L24" s="36"/>
+      <c r="P24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="L25" s="40"/>
-      <c r="P25" s="36"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="26"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="L25" s="36"/>
+      <c r="P25" s="32"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="24"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="L26" s="40"/>
-      <c r="P26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="L26" s="36"/>
+      <c r="P26" s="32"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="24"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="L27" s="40"/>
-      <c r="P27" s="36"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="L27" s="36"/>
+      <c r="P27" s="32"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="L28" s="40"/>
-      <c r="S28" s="41"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="L28" s="36"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="L29" s="40"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="L29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="L30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="L31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="24" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+    </row>
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+    </row>
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+    </row>
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+    </row>
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="H39" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-    </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="6"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-    </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="H39" t="s">
+      <c r="C41" s="18"/>
+      <c r="H41" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="5" t="s">
+      <c r="C42" s="17"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="R40" s="20"/>
-    </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="R42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="18"/>
-      <c r="R41" s="18"/>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="C43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="17"/>
+      <c r="R43" s="17"/>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="H42" s="4" t="s">
+      <c r="C44" s="17"/>
+      <c r="H44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="52" t="str" cm="1">
-        <f t="array" aca="1" ref="I42" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>Invoice</v>
-      </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
+      <c r="I44" s="46"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="17"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
+      <c r="A45" s="17"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/app/resource/xlsx/invoice_template.xlsx
+++ b/app/resource/xlsx/invoice_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F8073D-127F-4464-B2A1-C6AC4BEB0B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03A809-EA3C-404C-AAEB-39631ABF84B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -434,7 +434,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -542,27 +542,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,10 +561,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +575,27 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -913,8 +918,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,14 +946,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="47"/>
@@ -973,8 +978,8 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1076,39 +1081,35 @@
       <c r="J10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="48"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1117,15 +1118,11 @@
       <c r="A13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="66" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="51" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="23"/>
@@ -1133,24 +1130,20 @@
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="48"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -1159,13 +1152,10 @@
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="P16" s="32"/>
@@ -1174,13 +1164,10 @@
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="L17" s="36"/>
@@ -1190,13 +1177,10 @@
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="L18" s="36"/>
@@ -1206,13 +1190,10 @@
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="L19" s="36"/>
@@ -1222,12 +1203,8 @@
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="48"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -1236,12 +1213,8 @@
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="48"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -1250,24 +1223,16 @@
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="48"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="48"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -1276,12 +1241,8 @@
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="48"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -1294,12 +1255,8 @@
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="48"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -1312,12 +1269,8 @@
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="48"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -1330,12 +1283,8 @@
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="48"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -1348,12 +1297,8 @@
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="48"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
@@ -1362,12 +1307,8 @@
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="59"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="48"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -1378,44 +1319,28 @@
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="48"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
-      <c r="L30" s="57"/>
-      <c r="S30" s="57"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="48"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
-      <c r="L31" s="57"/>
-      <c r="S31" s="57"/>
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="48"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -1425,12 +1350,8 @@
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="59"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="48"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -1440,12 +1361,8 @@
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="48"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -1455,45 +1372,27 @@
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
       <c r="S36" s="5"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
       <c r="S37" s="5"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
@@ -1506,9 +1405,9 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
       <c r="S38" s="5"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
@@ -1516,7 +1415,7 @@
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="54" t="s">
         <v>1</v>
       </c>
       <c r="I39" s="25"/>

--- a/app/resource/xlsx/invoice_template.xlsx
+++ b/app/resource/xlsx/invoice_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B03A809-EA3C-404C-AAEB-39631ABF84B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B56BBD7-56FB-4EF8-9B7E-5A344A862A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -575,6 +575,18 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -583,18 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -919,13 +919,17 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" customWidth="1"/>
+    <col min="1" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
@@ -946,14 +950,14 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="47"/>
@@ -978,8 +982,8 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1081,16 +1085,16 @@
       <c r="J10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
@@ -1135,8 +1139,8 @@
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
       <c r="F14" s="52"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
     </row>
@@ -1154,8 +1158,8 @@
       <c r="A16" s="36"/>
       <c r="E16" s="32"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="P16" s="32"/>
@@ -1166,8 +1170,8 @@
       <c r="A17" s="36"/>
       <c r="E17" s="32"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="L17" s="36"/>
@@ -1179,8 +1183,8 @@
       <c r="A18" s="36"/>
       <c r="E18" s="32"/>
       <c r="F18" s="52"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="L18" s="36"/>
@@ -1192,8 +1196,8 @@
       <c r="A19" s="36"/>
       <c r="E19" s="32"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="L19" s="36"/>
